--- a/User stories.xlsx
+++ b/User stories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Openclassrooms\projet3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Openclassrooms\projet3\Final_DesignApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270BA6F4-6743-4BC7-9ABD-10DBE44F31B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFDA302-3379-4D5F-9901-D1BD96358EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8DDDDD0-8515-4044-B9E7-370A1765922A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8DDDDD0-8515-4044-B9E7-370A1765922A}"/>
   </bookViews>
   <sheets>
     <sheet name="Page de connexion" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>En tant que</t>
+  </si>
+  <si>
+    <t>Je souhaite</t>
+  </si>
+  <si>
+    <t>Afin de</t>
+  </si>
+  <si>
+    <t>Utilisateur</t>
+  </si>
+  <si>
+    <t>Entrer mon identifiant et mon mot de passe</t>
+  </si>
+  <si>
+    <t>Acceder aux services proposés</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +403,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A048D7-55A8-4A7B-A18A-06668F66F7B5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="68.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>